--- a/excel/data_excel/MonPreset.xlsx
+++ b/excel/data_excel/MonPreset.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC39F4-5718-4950-AD5C-FF9A8034E66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="14100" yWindow="4133" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MonPreset" localSheetId="0">Sheet1!$A$1:$B$230</definedName>
+    <definedName name="MonPreset" localSheetId="0">Sheet1!$C$1:$D$232</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="MonPreset" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="MonPreset" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\MonPreset.txt">
       <textFields count="2">
         <textField/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="193">
   <si>
     <t>Act</t>
   </si>
@@ -587,12 +588,44 @@
   </si>
   <si>
     <t>evilhut</t>
+  </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_MonPreset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,12 +674,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MonPreset" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MonPreset" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,7 +728,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,9 +761,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,6 +813,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -935,1854 +1005,3264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B230"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>192</v>
       </c>
       <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>1</v>
-      </c>
       <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>1</v>
-      </c>
       <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>2</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>2</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="B92" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>2</v>
-      </c>
-      <c r="B93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>2</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>2</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>2</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>2</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>2</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102">
-        <v>2</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104">
-        <v>2</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105">
-        <v>2</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106">
-        <v>2</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107">
-        <v>2</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108">
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110">
         <v>3</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D110" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111">
         <v>3</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D111" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112">
         <v>3</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D112" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113">
         <v>3</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D113" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114">
         <v>3</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D114" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115">
         <v>3</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D115" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116">
         <v>3</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D116" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117">
         <v>3</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D117" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118">
         <v>3</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D118" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119">
         <v>3</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D119" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120">
         <v>3</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121">
         <v>3</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D121" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122">
         <v>3</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D122" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123">
         <v>3</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D123" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124">
         <v>3</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>96</v>
+      </c>
+      <c r="C125">
         <v>3</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D125" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126">
         <v>3</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D126" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127">
         <v>3</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D127" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128">
         <v>3</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D128" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129">
         <v>3</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130">
         <v>3</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131">
         <v>3</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D131" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132">
         <v>3</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133">
         <v>3</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>101</v>
+      </c>
+      <c r="C134">
         <v>3</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D134" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135">
         <v>3</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D135" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136">
         <v>3</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D136" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>104</v>
+      </c>
+      <c r="C137">
         <v>3</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D137" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138">
         <v>3</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D138" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139">
         <v>3</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D139" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C140">
         <v>3</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D140" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141">
         <v>3</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D141" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C142">
         <v>3</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D142" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>110</v>
+      </c>
+      <c r="C143">
         <v>3</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D143" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>111</v>
+      </c>
+      <c r="C144">
         <v>3</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D144" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145">
         <v>3</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D145" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146">
         <v>3</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D146" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147">
         <v>3</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D147" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>115</v>
+      </c>
+      <c r="C148">
         <v>3</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D148" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A147">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149">
         <v>4</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D149" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150">
         <v>4</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D150" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A149">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151">
         <v>4</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D151" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152">
         <v>4</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D152" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153">
         <v>4</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D153" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154">
         <v>4</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D154" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155">
         <v>4</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D155" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156">
         <v>4</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D156" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157">
         <v>4</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D157" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C158">
         <v>4</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D158" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159" t="s">
+        <v>119</v>
+      </c>
+      <c r="C159">
         <v>4</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D159" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160" t="s">
+        <v>120</v>
+      </c>
+      <c r="C160">
         <v>4</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D160" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A159">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C161">
         <v>4</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D161" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>122</v>
+      </c>
+      <c r="C162">
         <v>4</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D162" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>123</v>
+      </c>
+      <c r="C163">
         <v>4</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D163" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164" t="s">
+        <v>124</v>
+      </c>
+      <c r="C164">
         <v>4</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D164" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
+        <v>125</v>
+      </c>
+      <c r="C165">
         <v>4</v>
       </c>
-      <c r="B163" t="s">
+      <c r="D165" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A164">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166" t="s">
+        <v>126</v>
+      </c>
+      <c r="C166">
         <v>4</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D166" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167" t="s">
+        <v>127</v>
+      </c>
+      <c r="C167">
         <v>4</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D167" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168">
         <v>4</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D168" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169" t="s">
+        <v>129</v>
+      </c>
+      <c r="C169">
         <v>4</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D169" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170">
         <v>4</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D170" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171">
         <v>4</v>
       </c>
-      <c r="B169" t="s">
+      <c r="D171" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172">
         <v>4</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D172" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173">
         <v>4</v>
       </c>
-      <c r="B171" t="s">
+      <c r="D173" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174">
         <v>4</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D174" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C175">
         <v>4</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D175" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>136</v>
+      </c>
+      <c r="C176">
         <v>4</v>
       </c>
-      <c r="B174" t="s">
+      <c r="D176" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175">
-        <v>5</v>
-      </c>
-      <c r="B175" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>174</v>
+      </c>
+      <c r="B177" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176">
-        <v>5</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="C177">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177">
-        <v>5</v>
-      </c>
-      <c r="B177" t="s">
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A178">
-        <v>5</v>
-      </c>
-      <c r="B178" t="s">
+      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179">
-        <v>5</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180">
-        <v>5</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181">
-        <v>5</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182">
-        <v>5</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183">
-        <v>5</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184">
-        <v>5</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="C185">
+        <v>5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185">
-        <v>5</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186">
-        <v>5</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187">
-        <v>5</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>186</v>
+      </c>
+      <c r="B189" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188">
-        <v>5</v>
-      </c>
-      <c r="B188" t="s">
+      <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>187</v>
+      </c>
+      <c r="B190" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189">
-        <v>5</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190">
-        <v>5</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191">
-        <v>5</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>190</v>
+      </c>
+      <c r="B193" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A192">
-        <v>5</v>
-      </c>
-      <c r="B192" t="s">
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>191</v>
+      </c>
+      <c r="B194" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193">
-        <v>5</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="C194">
+        <v>5</v>
+      </c>
+      <c r="D194" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>192</v>
+      </c>
+      <c r="B195" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A194">
-        <v>5</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>193</v>
+      </c>
+      <c r="B196" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195">
-        <v>5</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>194</v>
+      </c>
+      <c r="B197" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A196">
-        <v>5</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="C197">
+        <v>5</v>
+      </c>
+      <c r="D197" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>195</v>
+      </c>
+      <c r="B198" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A197">
-        <v>5</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>196</v>
+      </c>
+      <c r="B199" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A198">
-        <v>5</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>197</v>
+      </c>
+      <c r="B200" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A199">
-        <v>5</v>
-      </c>
-      <c r="B199" t="s">
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>198</v>
+      </c>
+      <c r="B201" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A200">
-        <v>5</v>
-      </c>
-      <c r="B200" t="s">
+      <c r="C201">
+        <v>5</v>
+      </c>
+      <c r="D201" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>199</v>
+      </c>
+      <c r="B202" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A201">
-        <v>5</v>
-      </c>
-      <c r="B201" t="s">
+      <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A202">
-        <v>5</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="C203">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>201</v>
+      </c>
+      <c r="B204" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A203">
-        <v>5</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>202</v>
+      </c>
+      <c r="B205" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A204">
-        <v>5</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="C205">
+        <v>5</v>
+      </c>
+      <c r="D205" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>203</v>
+      </c>
+      <c r="B206" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A205">
-        <v>5</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="C206">
+        <v>5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>204</v>
+      </c>
+      <c r="B207" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A206">
-        <v>5</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="C207">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>205</v>
+      </c>
+      <c r="B208" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A207">
-        <v>5</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="C208">
+        <v>5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>206</v>
+      </c>
+      <c r="B209" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A208">
-        <v>5</v>
-      </c>
-      <c r="B208" t="s">
+      <c r="C209">
+        <v>5</v>
+      </c>
+      <c r="D209" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>207</v>
+      </c>
+      <c r="B210" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A209">
-        <v>5</v>
-      </c>
-      <c r="B209" t="s">
+      <c r="C210">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>208</v>
+      </c>
+      <c r="B211" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A210">
-        <v>5</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="C211">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>209</v>
+      </c>
+      <c r="B212" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A211">
-        <v>5</v>
-      </c>
-      <c r="B211" t="s">
+      <c r="C212">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>210</v>
+      </c>
+      <c r="B213" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A212">
-        <v>5</v>
-      </c>
-      <c r="B212" t="s">
+      <c r="C213">
+        <v>5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>211</v>
+      </c>
+      <c r="B214" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A213">
-        <v>5</v>
-      </c>
-      <c r="B213" t="s">
+      <c r="C214">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>212</v>
+      </c>
+      <c r="B215" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A214">
-        <v>5</v>
-      </c>
-      <c r="B214" t="s">
+      <c r="C215">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>213</v>
+      </c>
+      <c r="B216" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A215">
-        <v>5</v>
-      </c>
-      <c r="B215" t="s">
+      <c r="C216">
+        <v>5</v>
+      </c>
+      <c r="D216" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>214</v>
+      </c>
+      <c r="B217" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A216">
-        <v>5</v>
-      </c>
-      <c r="B216" t="s">
+      <c r="C217">
+        <v>5</v>
+      </c>
+      <c r="D217" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>215</v>
+      </c>
+      <c r="B218" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A217">
-        <v>5</v>
-      </c>
-      <c r="B217" t="s">
+      <c r="C218">
+        <v>5</v>
+      </c>
+      <c r="D218" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>216</v>
+      </c>
+      <c r="B219" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A218">
-        <v>5</v>
-      </c>
-      <c r="B218" t="s">
+      <c r="C219">
+        <v>5</v>
+      </c>
+      <c r="D219" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>217</v>
+      </c>
+      <c r="B220" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A219">
-        <v>5</v>
-      </c>
-      <c r="B219" t="s">
+      <c r="C220">
+        <v>5</v>
+      </c>
+      <c r="D220" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>218</v>
+      </c>
+      <c r="B221" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A220">
-        <v>5</v>
-      </c>
-      <c r="B220" t="s">
+      <c r="C221">
+        <v>5</v>
+      </c>
+      <c r="D221" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>219</v>
+      </c>
+      <c r="B222" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A221">
-        <v>5</v>
-      </c>
-      <c r="B221" t="s">
+      <c r="C222">
+        <v>5</v>
+      </c>
+      <c r="D222" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>220</v>
+      </c>
+      <c r="B223" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A222">
-        <v>5</v>
-      </c>
-      <c r="B222" t="s">
+      <c r="C223">
+        <v>5</v>
+      </c>
+      <c r="D223" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>221</v>
+      </c>
+      <c r="B224" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A223">
-        <v>5</v>
-      </c>
-      <c r="B223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A224">
-        <v>5</v>
-      </c>
-      <c r="B224" t="s">
+      <c r="C224">
+        <v>5</v>
+      </c>
+      <c r="D224" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>222</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>223</v>
+      </c>
+      <c r="B226" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A225">
-        <v>5</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="C226">
+        <v>5</v>
+      </c>
+      <c r="D226" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>224</v>
+      </c>
+      <c r="B227" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A226">
-        <v>5</v>
-      </c>
-      <c r="B226" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A227">
-        <v>5</v>
-      </c>
-      <c r="B227" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="B228" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C228">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>228</v>
+      </c>
+      <c r="B231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>229</v>
+      </c>
+      <c r="B232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2793,12 +4273,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,12 +4286,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
